--- a/xlsx/美国新闻自由_intext.xlsx
+++ b/xlsx/美国新闻自由_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>美国新闻自由</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国新闻自由</t>
+    <t>美国政府</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国新闻自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
@@ -65,37 +65,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E5%B1%80</t>
   </si>
   <si>
-    <t>郵局</t>
+    <t>邮局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%82%91%E6%98%8E%C2%B7%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97</t>
   </si>
   <si>
-    <t>本傑明·富蘭克林</t>
+    <t>本杰明·富兰克林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%B9%E8%AC%97%E7%BD%AA</t>
   </si>
   <si>
-    <t>誹謗罪</t>
+    <t>诽谤罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BE%E6%A0%BC%E6%A1%88%E4%BB%B6</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E5%82%91%E4%BD%9B%E9%81%9C</t>
   </si>
   <si>
-    <t>湯瑪斯·傑佛遜</t>
+    <t>汤玛斯·杰佛逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%84%8F</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國會</t>
+    <t>国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
@@ -245,21 +245,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國防部</t>
+    <t>美国国防部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>越戰</t>
+    <t>越战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>美國最高法院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E5%91%A8%E5%88%8A</t>
   </si>
   <si>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>中央情報局</t>
+    <t>中央情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E8%BF%AA%E6%80%9D%C2%B7%E7%B1%B3%E5%8B%92</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>國家安全</t>
+    <t>国家安全</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AE%BA%E7%9A%84%E8%BE%B9%E7%95%8C</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%A8%E5%8F%B0%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國在台協會</t>
+    <t>美国在台协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Life_in_the_US</t>
@@ -323,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
@@ -347,13 +344,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>美國經濟</t>
+    <t>美国经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國醫療系統</t>
+    <t>美国医疗系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
@@ -371,13 +368,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>美國人權</t>
+    <t>美国人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國社會問題</t>
+    <t>美国社会问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
@@ -419,13 +416,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
 </sst>
 </file>
@@ -1927,7 +1924,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1953,10 +1950,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -1982,10 +1979,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2011,10 +2008,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2040,10 +2037,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2069,10 +2066,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2098,10 +2095,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2127,10 +2124,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2156,10 +2153,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2185,10 +2182,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2214,10 +2211,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
@@ -2243,10 +2240,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -2272,10 +2269,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2301,10 +2298,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -2330,10 +2327,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2359,10 +2356,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2388,10 +2385,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2417,10 +2414,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2446,10 +2443,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2475,10 +2472,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2504,10 +2501,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2533,10 +2530,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2562,10 +2559,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2591,10 +2588,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2620,10 +2617,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2649,10 +2646,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2678,10 +2675,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2707,10 +2704,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2736,10 +2733,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
